--- a/1.Administrativo/3.Backlog/Backlog - EVA.xlsx
+++ b/1.Administrativo/3.Backlog/Backlog - EVA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markz\Desktop\eva\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\eva\1.Administrativo\3.Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE6D8385-3BF6-4B86-B0FB-7EDBBB52F4CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{84CBAFA2-6FB6-47AD-9498-9FDF441E8285}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$G$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$G$12</definedName>
     <definedName name="acompanhamento">#REF!</definedName>
     <definedName name="atende">#REF!</definedName>
     <definedName name="Comunicação">INDIRECT(#REF!)</definedName>
@@ -45,7 +44,7 @@
     <definedName name="TrabalhoEmEquipe">INDIRECT(#REF!)</definedName>
     <definedName name="visão">INDIRECT(#REF!)</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="71">
   <si>
     <t>Essencial</t>
   </si>
@@ -124,9 +123,6 @@
     <t>Deve haver um campo de "Esqueci minha senha"</t>
   </si>
   <si>
-    <t>Na barra de navegação deve haver os campos "Home", "Sobre","Orçamento", "Produtos", "Login"</t>
-  </si>
-  <si>
     <t>O site deve conter uma área de Orçamento</t>
   </si>
   <si>
@@ -143,130 +139,157 @@
     <t xml:space="preserve">Deve haver a Home da pagina institucional </t>
   </si>
   <si>
+    <t>O dispositivo deve conter um sensor LDR</t>
+  </si>
+  <si>
+    <t>Informações coletadas pelo sensor devem ser armazenadas em nosso banco de dados</t>
+  </si>
+  <si>
+    <t>Nossa empresa deve  apresentar Tubos Solares como parte da solução</t>
+  </si>
+  <si>
+    <t>Informações coletadas pelo sensor devem ser visiveis para os clientes no Dashboard</t>
+  </si>
+  <si>
+    <t>Informações passadas devem ser guardadas em histórico para analise própria e do cliente</t>
+  </si>
+  <si>
+    <t>O dispositivo deve captar a luz natural e controlar a luz artificial</t>
+  </si>
+  <si>
+    <t>Funcional/Não Funcional</t>
+  </si>
+  <si>
+    <t>Não Funcional</t>
+  </si>
+  <si>
+    <t>Funcional</t>
+  </si>
+  <si>
+    <t>É necessária a conexão com internet</t>
+  </si>
+  <si>
+    <t>É necessário aparelho que tenham um navegador</t>
+  </si>
+  <si>
+    <t>DOC-1</t>
+  </si>
+  <si>
+    <t>BD-1</t>
+  </si>
+  <si>
+    <t>SITE-1</t>
+  </si>
+  <si>
+    <t>SITE-2</t>
+  </si>
+  <si>
+    <t>SITE-3</t>
+  </si>
+  <si>
+    <t>SITE-4</t>
+  </si>
+  <si>
+    <t>SITE-5</t>
+  </si>
+  <si>
+    <t>SITE-6</t>
+  </si>
+  <si>
+    <t>SITE-7</t>
+  </si>
+  <si>
+    <t>SITE-8</t>
+  </si>
+  <si>
+    <t>SITE-9</t>
+  </si>
+  <si>
+    <t>SITE-10</t>
+  </si>
+  <si>
+    <t>SITE-11</t>
+  </si>
+  <si>
+    <t>DISP-1</t>
+  </si>
+  <si>
+    <t>DOC-2</t>
+  </si>
+  <si>
+    <t>DOC-3</t>
+  </si>
+  <si>
+    <t>DISP-2</t>
+  </si>
+  <si>
+    <t>BD-2</t>
+  </si>
+  <si>
+    <t>SITE-12</t>
+  </si>
+  <si>
+    <t>SITE-13</t>
+  </si>
+  <si>
+    <t>O sistema deve apresentar informações em tempo real</t>
+  </si>
+  <si>
+    <t>SITE-14</t>
+  </si>
+  <si>
+    <t>INF-1</t>
+  </si>
+  <si>
+    <t>INF-2</t>
+  </si>
+  <si>
+    <t>INF-3</t>
+  </si>
+  <si>
     <t>Sprint 2 A3
-dd-mm a dd-mm</t>
+16-04 a 22-04</t>
+  </si>
+  <si>
+    <t>Sprint 2 A3
+16-04 a 22-05</t>
+  </si>
+  <si>
+    <t>Sprint 2 A2
+10-04 a 16-05</t>
   </si>
   <si>
     <t>Sprint A4
-dd-mm a dd-mm</t>
-  </si>
-  <si>
-    <t>Sprint 2 A5
-dd-mm a dd-mm</t>
-  </si>
-  <si>
-    <t>O dispositivo deve conter um sensor LDR</t>
-  </si>
-  <si>
-    <t>Informações coletadas pelo sensor devem ser armazenadas em nosso banco de dados</t>
-  </si>
-  <si>
-    <t>Nossa empresa deve  apresentar Tubos Solares como parte da solução</t>
-  </si>
-  <si>
-    <t>Informações coletadas pelo sensor devem ser visiveis para os clientes no Dashboard</t>
-  </si>
-  <si>
-    <t>Informações passadas devem ser guardadas em histórico para analise própria e do cliente</t>
-  </si>
-  <si>
-    <t>O dispositivo deve captar a luz natural e controlar a luz artificial</t>
-  </si>
-  <si>
-    <t>Funcional/Não Funcional</t>
-  </si>
-  <si>
-    <t>Não Funcional</t>
-  </si>
-  <si>
-    <t>Funcional</t>
-  </si>
-  <si>
-    <t>É necessária a conexão com internet</t>
-  </si>
-  <si>
-    <t>É necessário aparelho que tenham um navegador</t>
-  </si>
-  <si>
-    <t>DOC-1</t>
-  </si>
-  <si>
-    <t>BD-1</t>
-  </si>
-  <si>
-    <t>SITE-1</t>
-  </si>
-  <si>
-    <t>SITE-2</t>
-  </si>
-  <si>
-    <t>SITE-3</t>
-  </si>
-  <si>
-    <t>SITE-4</t>
-  </si>
-  <si>
-    <t>SITE-5</t>
-  </si>
-  <si>
-    <t>SITE-6</t>
-  </si>
-  <si>
-    <t>SITE-7</t>
-  </si>
-  <si>
-    <t>SITE-8</t>
-  </si>
-  <si>
-    <t>SITE-9</t>
-  </si>
-  <si>
-    <t>SITE-10</t>
-  </si>
-  <si>
-    <t>SITE-11</t>
-  </si>
-  <si>
-    <t>DISP-1</t>
-  </si>
-  <si>
-    <t>DOC-2</t>
-  </si>
-  <si>
-    <t>DOC-3</t>
-  </si>
-  <si>
-    <t>DISP-2</t>
-  </si>
-  <si>
-    <t>BD-2</t>
-  </si>
-  <si>
-    <t>SITE-12</t>
-  </si>
-  <si>
-    <t>SITE-13</t>
-  </si>
-  <si>
-    <t>O sistema deve apresentar informações em tempo real</t>
-  </si>
-  <si>
-    <t>SITE-14</t>
-  </si>
-  <si>
-    <t>INF-1</t>
-  </si>
-  <si>
-    <t>INF-2</t>
-  </si>
-  <si>
-    <t>INF-3</t>
+23-04 a 29-04</t>
+  </si>
+  <si>
+    <t>Sprint A5
+30-04 a 07-05</t>
+  </si>
+  <si>
+    <t>Sprint A5
+30-04 a 07-06</t>
+  </si>
+  <si>
+    <t>Sprint A5
+30-04 a 07-07</t>
+  </si>
+  <si>
+    <t>Sprint A5
+30-04 a 07-10</t>
+  </si>
+  <si>
+    <t>Sprint A4
+23-04 a 29-05</t>
+  </si>
+  <si>
+    <t>Na barra de navegação deve haver os campos "Home", "Sobre","Orçamento", "Login"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -287,7 +310,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +326,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -354,14 +401,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -369,6 +425,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFBAD9DA"/>
+      <color rgb="FFC6CECB"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1076,26 +1138,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB9C4F9-8DBD-40F4-ACC7-D36CCEFDB579}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="54.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="8.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="54.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1106,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
@@ -1118,78 +1180,78 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="C2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="9">
         <v>8</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="9">
         <v>1</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="C3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="9">
         <v>13</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="9">
         <v>2</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="C4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="9">
         <v>5</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="9">
         <v>3</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
@@ -1198,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E5" s="5">
         <v>13</v>
@@ -1206,118 +1268,128 @@
       <c r="F5" s="5">
         <v>4</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E6" s="5">
         <v>21</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F6" s="5">
+        <v>5</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E7" s="5">
         <v>5</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F7" s="5">
+        <v>6</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E8" s="5">
-        <v>5</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5">
+        <v>7</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E9" s="5">
-        <v>3</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F9" s="5">
+        <v>8</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E10" s="5">
-        <v>8</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="5">
+        <v>9</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>15</v>
@@ -1326,314 +1398,344 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E11" s="5">
         <v>8</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F11" s="5">
+        <v>10</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="5">
+        <v>8</v>
+      </c>
+      <c r="F12" s="5">
+        <v>11</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="5">
+        <v>21</v>
+      </c>
+      <c r="F13" s="5">
+        <v>12</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5">
+        <v>13</v>
+      </c>
+      <c r="F14" s="5">
+        <v>13</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="5">
+        <v>13</v>
+      </c>
+      <c r="F15" s="5">
+        <v>14</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="5">
         <v>5</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="F16" s="5">
+        <v>15</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="5">
-        <v>13</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="5">
-        <v>21</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="5">
-        <v>8</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="5">
-        <v>13</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E17" s="5">
         <v>13</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F17" s="5">
+        <v>16</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E18" s="5">
         <v>13</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="3" t="s">
+      <c r="F18" s="5">
+        <v>17</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E19" s="5">
         <v>13</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F19" s="5">
+        <v>18</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E20" s="5">
         <v>13</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F20" s="5">
+        <v>19</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="E21" s="5">
         <v>13</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F21" s="5">
+        <v>20</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E22" s="5">
         <v>13</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F22" s="5">
+        <v>21</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E23" s="5">
         <v>13</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F23" s="5">
+        <v>22</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E24" s="5">
         <v>13</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F24" s="5">
+        <v>23</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E25" s="5">
         <v>13</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="3" t="s">
-        <v>27</v>
+      <c r="F25" s="5">
+        <v>24</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G11" xr:uid="{C0E5DE25-B7F3-4367-8353-42E345CEEEA7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G16">
-      <sortCondition ref="F1:F11"/>
+  <autoFilter ref="A1:G12">
+    <sortState ref="A2:G25">
+      <sortCondition ref="G1:G12"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1643,12 +1745,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A9BC80282CCA404AA1CD1CA861A2963D" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4d0a986244f0c450349ad09cdebecbb2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c4830a68-a8b0-4951-a620-6963d0f88529" xmlns:ns4="8883472b-a884-4206-9b1d-0a9e1a4d759c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd11ff14991a2a7c4b2bd50579d584c1" ns3:_="" ns4:_="">
     <xsd:import namespace="c4830a68-a8b0-4951-a620-6963d0f88529"/>
@@ -1857,7 +1953,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1866,24 +1962,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6307CC5C-35AE-4BF6-AB1C-CA68C1295C47}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c4830a68-a8b0-4951-a620-6963d0f88529"/>
-    <ds:schemaRef ds:uri="8883472b-a884-4206-9b1d-0a9e1a4d759c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3905A48-2209-475D-B89F-4D2CCA4D7509}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1902,10 +1987,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7A69715-2BF2-473E-A417-403290B48624}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6307CC5C-35AE-4BF6-AB1C-CA68C1295C47}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c4830a68-a8b0-4951-a620-6963d0f88529"/>
+    <ds:schemaRef ds:uri="8883472b-a884-4206-9b1d-0a9e1a4d759c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>